--- a/blNeu/Matches.xlsx
+++ b/blNeu/Matches.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
